--- a/nop-tcc/model/nop-tcc.orm.xlsx
+++ b/nop-tcc/model/nop-tcc.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-tcc\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0926DE98-00FE-4BAB-BECF-F0434B824684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393E1C8-2920-4266-9099-F306CAE5080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="222">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,6 +858,66 @@
   </si>
   <si>
     <t>nop_tcc_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCEL_ERROR_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCEL_ERROR_MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel Error Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel Error Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消阶段错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消阶段错误消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_STACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMIT_ERROR_STACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commit Error Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交阶段错误堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCEL_ERROR_STACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel Error Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消阶段错误堆栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,6 +1217,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,54 +1281,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2275,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2746,25 +2806,23 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K17" s="7">
+        <v>200</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
       <c r="N17" s="7"/>
@@ -2777,25 +2835,23 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="11" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1000</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="11"/>
       <c r="N18" s="7"/>
@@ -2808,67 +2864,158 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="11" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1000</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="11"/>
       <c r="N19" s="7"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="F20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="11"/>
       <c r="N20" s="7"/>
       <c r="O20" s="1"/>
     </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="1"/>
+    </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="87.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -2890,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C6B555-87D2-4168-B3BF-C9A72D0BC7F5}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3463,7 +3610,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="11"/>
@@ -3477,23 +3624,23 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1000</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="11"/>
       <c r="N21" s="7"/>
@@ -3506,17 +3653,19 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="J22" s="11" t="s">
         <v>39</v>
       </c>
@@ -3533,23 +3682,21 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="11" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="7"/>
       <c r="J23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="7">
-        <v>200</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="11"/>
       <c r="N23" s="7"/>
@@ -3562,14 +3709,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="7"/>
@@ -3591,21 +3738,23 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="11" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="11" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="7"/>
       <c r="J25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1000</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
       <c r="N25" s="7"/>
@@ -3618,23 +3767,23 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="11" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="11" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1000</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="11"/>
       <c r="N26" s="7"/>
@@ -3647,21 +3796,23 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="11" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="11" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="7"/>
       <c r="J27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K27" s="7">
+        <v>200</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="11"/>
       <c r="N27" s="7"/>
@@ -3674,25 +3825,23 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="11" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="11" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1000</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="11"/>
       <c r="N28" s="7"/>
@@ -3705,25 +3854,23 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="11" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="11" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1000</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="11"/>
       <c r="N29" s="7"/>
@@ -3736,23 +3883,19 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="11" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -3761,246 +3904,426 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7">
+        <v>24</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="F31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="11"/>
       <c r="N31" s="7"/>
       <c r="O31" s="1"/>
     </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>25</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="1"/>
+    </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="7">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>28</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="58">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="41">
         <v>1</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="34" t="s">
+      <c r="C39" s="44"/>
+      <c r="D39" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="2" t="s">
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H39" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="46" t="s">
+      <c r="I39" s="35"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="11" t="s">
+      <c r="L39" s="46"/>
+      <c r="M39" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="44" t="s">
+      <c r="N39" s="11"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="34" t="s">
+      <c r="C40" s="44"/>
+      <c r="D40" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="2" t="s">
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H40" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="46" t="s">
+      <c r="I40" s="35"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="L35" s="47"/>
-      <c r="M35" s="31" t="s">
+      <c r="L40" s="46"/>
+      <c r="M40" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="44" t="s">
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="33"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="34" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="24" t="s">
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H41" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="44" t="s">
+      <c r="I41" s="35"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="18"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="46" t="s">
+      <c r="C42" s="44"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L37" s="47"/>
-      <c r="M37" s="31" t="s">
+      <c r="L42" s="46"/>
+      <c r="M42" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="33"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="48" t="s">
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="15" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="42"/>
+      <c r="B44" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="23" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G44" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="46" t="s">
+      <c r="H44" s="46"/>
+      <c r="I44" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="53"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="9">
+      <c r="J44" s="46"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="49"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="42"/>
+      <c r="B45" s="9">
         <v>1</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C45" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="38" t="s">
+      <c r="D45" s="55"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="42"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="4"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="58"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -4013,37 +4336,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
